--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="187">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -484,34 +484,34 @@
     <t xml:space="preserve">sele,gen</t>
   </si>
   <si>
+    <t xml:space="preserve">Name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new name for edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Phone Number* for Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuuu</t>
+  </si>
+  <si>
     <t xml:space="preserve">delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new name for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Phone Number* for Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuuu</t>
   </si>
   <si>
     <t xml:space="preserve">Client side OnBusy</t>
@@ -899,7 +899,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="I4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="I4 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="I4 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2112,7 +2112,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>147</v>
@@ -2265,6 +2265,9 @@
         <v>143</v>
       </c>
       <c r="H4" s="14"/>
+      <c r="I4" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="J4" s="0" t="s">
         <v>66</v>
       </c>
@@ -2306,7 +2309,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="I4 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,33 +2324,33 @@
         <v>128</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
@@ -2360,24 +2363,24 @@
         <v>146</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2402,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="I4 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2504,7 +2507,7 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="I4 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4284,7 +4287,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="I4 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="190">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -41,37 +41,40 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santoshsubadmin</t>
+    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdinesh_qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinesh@123#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/cloudagent/agent_toolbar.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04030247025</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent_Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/cloudagent/agent_toolbar.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04030247025</t>
   </si>
   <si>
     <t xml:space="preserve">Which Campaign*</t>
@@ -298,6 +301,114 @@
     <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
   </si>
   <si>
+    <t xml:space="preserve">sannn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:15:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:18:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_agentid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121121121121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
     <t xml:space="preserve">Action</t>
   </si>
   <si>
@@ -352,9 +463,6 @@
     <t xml:space="preserve">santu</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
     <t xml:space="preserve">NICEEEE</t>
   </si>
   <si>
@@ -439,18 +547,9 @@
     <t xml:space="preserve">Client side OnBusy</t>
   </si>
   <si>
-    <t xml:space="preserve">Progressive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agentwise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toolbar</t>
   </si>
   <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Server side OnBusy</t>
   </si>
   <si>
@@ -466,115 +565,13 @@
     <t xml:space="preserve">Plugin</t>
   </si>
   <si>
-    <t xml:space="preserve">Client side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:18:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_agentid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121121121121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
     <t xml:space="preserve">production</t>
   </si>
   <si>
-    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdinesh_qa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinesh@123#</t>
-  </si>
-  <si>
     <t xml:space="preserve">16 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
   </si>
   <si>
     <t xml:space="preserve">Staging 88</t>
@@ -759,6 +756,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -772,10 +773,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -933,7 +930,7 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -942,7 +939,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://172.16.15.16:8080/AdminPortal/mainMenu.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -961,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,233 +975,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1212,96 +1209,96 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1309,96 +1306,96 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1406,96 +1403,96 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="AI5" s="0" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1503,91 +1500,91 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="0" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1595,91 +1592,91 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1687,254 +1684,254 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="5" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="16" t="s">
-        <v>170</v>
+      <c r="G9" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2045,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:AJ10 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,24 +2059,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -2093,44 +2090,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -2139,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2172,7 +2169,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2212,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2234,10 +2231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK2" activeCellId="0" sqref="AK2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,233 +2258,233 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="AD2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2495,83 +2492,748 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AC5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>80</v>
+      <c r="AE5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="21">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C7" type="list">
+      <formula1>select_CompaignType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D8" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Z8" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AB8" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:P8" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AA10 T9:Z10" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T2:Z2" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
@@ -2584,27 +3246,27 @@
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C5" type="list">
       <formula1>select_CompaignType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D5" type="list">
       <formula1>SelectDialMethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T3:Z3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T3:Z5" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3:AB5" type="list">
       <formula1>SelectDispositionType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P3:P5" type="list">
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA3" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA3:AA5" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2620,7 +3282,22 @@
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB9:AB10" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P9:P10" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" display="http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2639,7 +3316,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="1" sqref="A2:AJ10 J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2651,112 +3328,112 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="H2" s="13"/>
       <c r="I2" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="H3" s="13"/>
       <c r="J3" s="0" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2777,7 +3454,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="A2:AJ10 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2789,74 +3466,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +3555,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2891,68 +3568,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2974,7 +3651,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2987,40 +3664,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3042,7 +3719,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3055,49 +3732,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>131</v>
+        <v>166</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3796,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A2:AJ10 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3132,70 +3809,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="E1" s="5" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>136</v>
+      <c r="A2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>74</v>
+      <c r="A3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>141</v>
+      <c r="A4" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Sheet6" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="198">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -41,13 +42,31 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/login.jsp</t>
   </si>
   <si>
     <t xml:space="preserve">mdinesh_qa</t>
   </si>
   <si>
-    <t xml:space="preserve">dinesh@123#</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dinesh@123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">customer</t>
@@ -71,7 +90,7 @@
     <t xml:space="preserve">santosh</t>
   </si>
   <si>
-    <t xml:space="preserve">04030247025</t>
+    <t xml:space="preserve">9553578721</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
@@ -187,6 +206,249 @@
     <t xml:space="preserve">On Transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">outbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121121121121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:15:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:18:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Id *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent new Id for edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbound Call </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Dial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview Dial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive Dial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone#123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new name for edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Phone Number* for Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Number*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Transfer Number* for Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for edit*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause reason*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause reason for edit*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason1123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:34:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonagentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client&amp;Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin</t>
+  </si>
+  <si>
     <t xml:space="preserve">inbound</t>
   </si>
   <si>
@@ -220,48 +482,21 @@
     <t xml:space="preserve">sans</t>
   </si>
   <si>
-    <t xml:space="preserve">Client&amp;Server</t>
-  </si>
-  <si>
     <t xml:space="preserve">urlll</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
     <t xml:space="preserve">path</t>
   </si>
   <si>
     <t xml:space="preserve">sant</t>
   </si>
   <si>
-    <t xml:space="preserve">outbound</t>
-  </si>
-  <si>
     <t xml:space="preserve">sannn2</t>
   </si>
   <si>
-    <t xml:space="preserve">Preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonagentwise</t>
-  </si>
-  <si>
     <t xml:space="preserve">12345678910</t>
   </si>
   <si>
@@ -277,30 +512,15 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server side</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">none</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
-  </si>
-  <si>
     <t xml:space="preserve">sannn3</t>
   </si>
   <si>
@@ -310,27 +530,6 @@
     <t xml:space="preserve">1234567899</t>
   </si>
   <si>
-    <t xml:space="preserve">14:15:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:18:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
     <t xml:space="preserve">num_skill</t>
   </si>
   <si>
@@ -340,15 +539,9 @@
     <t xml:space="preserve">sannn4</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentwise</t>
-  </si>
-  <si>
     <t xml:space="preserve">1234567</t>
   </si>
   <si>
-    <t xml:space="preserve">Client side</t>
-  </si>
-  <si>
     <t xml:space="preserve">number_agentid</t>
   </si>
   <si>
@@ -364,9 +557,6 @@
     <t xml:space="preserve">sannn5</t>
   </si>
   <si>
-    <t xml:space="preserve">Progressive</t>
-  </si>
-  <si>
     <t xml:space="preserve">12345699</t>
   </si>
   <si>
@@ -385,9 +575,6 @@
     <t xml:space="preserve">sannn8</t>
   </si>
   <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
     <t xml:space="preserve">99999999</t>
   </si>
   <si>
@@ -397,177 +584,15 @@
     <t xml:space="preserve">sannn9</t>
   </si>
   <si>
-    <t xml:space="preserve">predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121121121121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Id *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent new Id for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Name*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbound Call </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual Dial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preview Dial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive Dial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannnn1n1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone#123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICEEEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sele,Gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new name for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Phone Number* for Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Number*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Transfer Number* for Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason for edit*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenium123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenium1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause reason*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause reason for edit*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason1123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:34:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin</t>
-  </si>
-  <si>
     <t xml:space="preserve">production</t>
   </si>
   <si>
+    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinesh@123#</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 server</t>
   </si>
   <si>
@@ -602,6 +627,24 @@
   </si>
   <si>
     <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_nonag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_NonAg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_agentwise</t>
   </si>
 </sst>
 </file>
@@ -611,8 +654,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -744,19 +787,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,7 +795,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -773,6 +804,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -904,7 +947,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -930,16 +973,16 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://admin2.cloudagent.in/OCCDV2/login.jsp"/>
+    <hyperlink ref="C2" r:id="rId1" display="dinesh@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -959,7 +1002,7 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1085,87 +1128,87 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="9" t="n">
+        <v>133</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="9" t="n">
+      <c r="I2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="14" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>68</v>
@@ -1178,92 +1221,92 @@
         <v>69</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+        <v>147</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>86</v>
+        <v>150</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>68</v>
@@ -1275,92 +1318,92 @@
         <v>69</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>62</v>
+        <v>62</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD4" s="1" t="s">
         <v>68</v>
@@ -1369,95 +1412,95 @@
         <v>68</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>102</v>
+        <v>161</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>162</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC5" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>68</v>
@@ -1466,95 +1509,95 @@
         <v>68</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>90</v>
+        <v>167</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>68</v>
@@ -1564,89 +1607,89 @@
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="0" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>169</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>68</v>
@@ -1659,24 +1702,24 @@
         <v>69</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1684,61 +1727,61 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="AC8" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>68</v>
@@ -1748,87 +1791,87 @@
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="5" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="9"/>
+      <c r="G9" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="14"/>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>68</v>
@@ -1841,84 +1884,84 @@
         <v>69</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>104</v>
+        <v>62</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AD10" s="1" t="s">
         <v>68</v>
@@ -1931,7 +1974,7 @@
         <v>69</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2088,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A2:AJ10 B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,21 +2105,21 @@
         <v>177</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -2090,44 +2133,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -2136,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2161,6 +2204,748 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C5" type="list">
+      <formula1>select_CompaignType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D6" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T4:Z6" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB4:AB6" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P4:P6" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA4:AA7 T7:Z7" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C3" type="list">
+      <formula1>select_CompaignType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D3" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T1:Z3" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB1:AB3" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P1:P3" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA1:AA3" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB7" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P7" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2169,7 +2954,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,7 +2993,7 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2231,16 +3016,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="17.67"/>
@@ -2367,88 +3153,77 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <v>50</v>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="M2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="O2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>64</v>
+      <c r="S2" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>68</v>
@@ -2457,784 +3232,16 @@
         <v>68</v>
       </c>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="0" t="s">
         <v>69</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="21">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C7" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D8" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Z8" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB6:AB8" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:P8" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AA10 T9:Z10" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T2:Z2" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T2:AA2" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3246,58 +3253,7 @@
       <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C5" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D5" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T3:Z5" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3:AB5" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P3:P5" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA3:AA5" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB9:AB10" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P9:P10" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" display="http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3313,10 +3269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="1" sqref="A2:AJ10 J22"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3328,112 +3284,89 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>139</v>
+      <c r="A2" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="0" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="0" t="s">
-        <v>143</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
         <v>68</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="J3" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="13"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3451,10 +3384,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="A2:AJ10 A18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3466,74 +3399,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>83</v>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3457,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3568,65 +3470,65 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>65</v>
@@ -3651,7 +3553,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3664,40 +3566,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3621,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A2:AJ10"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3732,49 +3634,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3698,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A2:AJ10 E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3809,70 +3711,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="E1" s="5" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>102</v>
+      <c r="A2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>75</v>
+      <c r="A3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>174</v>
+      <c r="A4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="5" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="197">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -48,25 +48,7 @@
     <t xml:space="preserve">mdinesh_qa</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dinesh@123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#</t>
-    </r>
+    <t xml:space="preserve">dinesh@123#</t>
   </si>
   <si>
     <t xml:space="preserve">customer</t>
@@ -87,10 +69,10 @@
     <t xml:space="preserve">ca_testing</t>
   </si>
   <si>
-    <t xml:space="preserve">santosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9553578721</t>
+    <t xml:space="preserve">santosh1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04030247155</t>
   </si>
   <si>
     <t xml:space="preserve">100</t>
@@ -588,9 +570,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinesh@123#</t>
   </si>
   <si>
     <t xml:space="preserve">16 server</t>
@@ -982,7 +961,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="dinesh@123"/>
+    <hyperlink ref="C2" r:id="rId1" display="dinesh@123#"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2111,15 +2090,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>179</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
@@ -2133,44 +2112,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -2179,7 +2158,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2204,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>116</v>
@@ -2322,7 +2301,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>116</v>
@@ -2419,7 +2398,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>116</v>
@@ -2516,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>118</v>
@@ -2608,7 +2587,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>118</v>
@@ -2700,7 +2679,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>118</v>
@@ -2953,8 +2932,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3018,7 +2997,7 @@
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="213">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -42,13 +42,10 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mdinesh_qa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinesh@123#</t>
+    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal_blue/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca_testing</t>
   </si>
   <si>
     <t xml:space="preserve">customer</t>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/cloudagent/agent_toolbar.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca_testing</t>
   </si>
   <si>
     <t xml:space="preserve">santosh1</t>
@@ -188,442 +182,496 @@
     <t xml:space="preserve">On Transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">inbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdnv jsj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:02:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:05:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client&amp;Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Id *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent new Id for edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbound Call </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Dial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview Dial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive Dial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone#123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new name for edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Phone Number* for Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Number*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Transfer Number* for Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santuuu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for edit*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause reason*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pause reason for edit*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason1123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:34:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonagentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sant</t>
+  </si>
+  <si>
     <t xml:space="preserve">outbound</t>
   </si>
   <si>
+    <t xml:space="preserve">sannn2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345678910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:10:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:13:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:15:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:18:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_agentid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121121121121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdinesh_qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinesh@123#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staging 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staging 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_nonag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_preview_agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_NonAg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_mdl_Progressive_agentwise</t>
+  </si>
+  <si>
     <t xml:space="preserve">new_mdl_predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121121121121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4:5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:15:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:18:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Id *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent new Id for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Name*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbound Call </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manual Dial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preview Dial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive Dial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone#123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new name for edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Phone Number* for Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ozone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer Number*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Transfer Number* for Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuu2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santuuu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason for edit*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenium123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenium1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause reason*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause reason for edit*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reason1123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:34:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonagentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client&amp;Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdnv jsj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:02:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:05:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urlll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345678910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:10:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:13:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_agentid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staging 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staging 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_preview_nonag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_preview_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_preview_agentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_Progressive_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_Progressive_NonAg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_mdl_Progressive_agentwise</t>
   </si>
 </sst>
 </file>
@@ -633,8 +681,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="HH:MM:SS"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -766,6 +814,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -774,7 +830,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,14 +839,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,7 +974,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,14 +1003,11 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="dinesh@123#"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -980,7 +1025,7 @@
   </sheetPr>
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -997,708 +1042,708 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="14" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="14" t="n">
+      <c r="I2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>140</v>
+      <c r="AC2" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="AJ2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="O3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>154</v>
+      <c r="Z3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="Q4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="AC5" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC6" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="AD6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+        <v>179</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1706,254 +1751,254 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="14"/>
+        <v>184</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB9" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB10" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2081,84 +2126,84 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2236,7 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2201,494 +2246,494 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="9" t="s">
+      <c r="O1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>154</v>
+      <c r="Z1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>157</v>
+        <v>207</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="Q2" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>119</v>
+        <v>208</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="AC3" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>157</v>
+        <v>209</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+        <v>177</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>123</v>
+        <v>210</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+        <v>179</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2696,164 +2741,164 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>63</v>
+        <v>153</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2977,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2947,33 +2992,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2995,9 +3040,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3023,213 +3068,938 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="8" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="T2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="Y2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="Y4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AC5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T2:AA2" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T2:Z9" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB2:AB9" type="list">
       <formula1>SelectDispositionType</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2:P9" type="list">
       <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C9" type="list">
+      <formula1>select_CompaignType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D9" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA9" type="list">
+      <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3263,88 +4033,88 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>85</v>
+      <c r="A2" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="0" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="H2" s="12"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3378,43 +4148,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3449,68 +4219,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3545,40 +4315,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3613,49 +4383,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>113</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3690,70 +4460,70 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="15"/>
       <c r="E1" s="5" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>119</v>
+      <c r="A2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>128</v>
+      <c r="A4" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="234">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -191,6 +191,9 @@
     <t xml:space="preserve">On Transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">Results</t>
+  </si>
+  <si>
     <t xml:space="preserve">outbound</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
     <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample.xls</t>
   </si>
   <si>
+    <t xml:space="preserve">san</t>
+  </si>
+  <si>
     <t xml:space="preserve">sannn9</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
     <t xml:space="preserve">40</t>
   </si>
   <si>
+    <t xml:space="preserve">pan2 successfully</t>
+  </si>
+  <si>
     <t xml:space="preserve">Action</t>
   </si>
   <si>
@@ -335,15 +344,33 @@
     <t xml:space="preserve">Add</t>
   </si>
   <si>
+    <t xml:space="preserve">Ozo99</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ozo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ozone#123</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">Passed: Agent Ozo99 has been added successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ozo99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Ozo99 has been updated successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Ozo99 has been deleted successfully.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name*</t>
   </si>
   <si>
@@ -374,9 +401,6 @@
     <t xml:space="preserve">santuu2</t>
   </si>
   <si>
-    <t xml:space="preserve">edit</t>
-  </si>
-  <si>
     <t xml:space="preserve">santuuu</t>
   </si>
   <si>
@@ -398,9 +422,6 @@
     <t xml:space="preserve">selenium1234</t>
   </si>
   <si>
-    <t xml:space="preserve">delete</t>
-  </si>
-  <si>
     <t xml:space="preserve">pause reason*</t>
   </si>
   <si>
@@ -702,6 +723,18 @@
   </si>
   <si>
     <t xml:space="preserve">12351</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Password is required.</t>
+  </si>
+  <si>
+    <t>agentid Ozo99 is not available to edit</t>
+  </si>
+  <si>
+    <t>no records found with the agentid: Ozo99</t>
   </si>
 </sst>
 </file>
@@ -1004,15 +1037,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="52.92" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="17.21" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,13 +1094,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="48.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="48.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="11.52"/>
+    <col min="1" max="3" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="12.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="30" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="31" max="31" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="33" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,127 +1224,127 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1319,100 +1352,100 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1420,100 +1453,100 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1521,100 +1554,100 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1622,95 +1655,95 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1718,95 +1751,95 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1814,1110 +1847,1146 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="16" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB9" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="U10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB10" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J12" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J13" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H14" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J14" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB15" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB16" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC16" s="11"/>
       <c r="AD16" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="27">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U3:AA5" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
+      <formula1>select_CompaignType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
+      <formula1>SelectDialMethod</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U2:AA2" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB2:AC2" type="list">
+      <formula1>YES_NO</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD3:AD5" type="list">
+      <formula1>SelectDispositionType</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P3:P5" type="list">
+      <formula1>HitScreenPopURlAt</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U11:AA18" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
@@ -2939,30 +3008,6 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB11:AC18" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U2:AA2" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P2" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB2:AC2" type="list">
       <formula1>YES_NO</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2996,18 +3041,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D5" type="list">
       <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U3:AA5" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD3:AD5" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P3:P5" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB3:AC5" type="list">
@@ -3056,33 +3089,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="66.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="54.32" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="66.83" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -3096,44 +3129,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3142,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3180,24 +3213,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col min="1" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -3205,100 +3238,100 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3306,99 +3339,99 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -3406,99 +3439,99 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -3506,93 +3539,93 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3600,93 +3633,93 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC5" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3694,168 +3727,168 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="U7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3922,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D3" type="list">
-      <formula1>SelectDialMethod</formula1>
+      <formula1>select9ialmethod</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U1:AA3" type="list">
@@ -3935,13 +3968,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="57.1" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="1025" customWidth="false" hidden="false" style="1" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,33 +4030,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO3" activeCellId="0" sqref="AO3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="25" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="48.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="38" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.21" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="26.95" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.21" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="16.81" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="10" customWidth="true" hidden="false" style="1" width="17.67" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="12" customWidth="true" hidden="false" style="0" width="17.67" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="15" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="20.56" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="23" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="0" width="13.82" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="33" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="0" width="13.24" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="36" customWidth="true" hidden="false" style="0" width="16.94" collapsed="true" outlineLevel="0"/>
+    <col min="37" max="37" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="39" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="0" width="44.32" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -4141,22 +4176,25 @@
       <c r="AM1" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="AN1" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4164,178 +4202,200 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AE3" s="0" t="n">
         <v>45</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4392,103 +4452,134 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="9.2" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="13.24" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="15" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="33.76" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4507,58 +4598,74 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="15.88" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="7" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="35.42" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4577,84 +4684,98 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="0" width="23.08" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="21.67" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="35.42" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4673,56 +4794,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.73" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="25.4" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="36.26" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4741,65 +4875,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.73" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="25.14" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="36.38" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4821,83 +4977,83 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="18.8" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="12.83" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="18.61" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="15"/>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AdminLogin" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,10 +16,11 @@
     <sheet name="TransferNumbers" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Dispositions" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pause Reasons" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="API AUTOMATION" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="251">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -353,7 +354,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Passed: Agent Ozo99 has been added successfully.</t>
+    <t xml:space="preserve">Password is required.</t>
   </si>
   <si>
     <t xml:space="preserve">edit</t>
@@ -362,13 +363,13 @@
     <t xml:space="preserve">ozo99</t>
   </si>
   <si>
-    <t xml:space="preserve">Agent Ozo99 has been updated successfully.</t>
+    <t xml:space="preserve">agentid Ozo99 is not available to edit</t>
   </si>
   <si>
     <t xml:space="preserve">delete</t>
   </si>
   <si>
-    <t xml:space="preserve">Agent Ozo99 has been deleted successfully.</t>
+    <t xml:space="preserve">no records found with the agentid: Ozo99</t>
   </si>
   <si>
     <t xml:space="preserve">Name*</t>
@@ -443,6 +444,108 @@
     <t xml:space="preserve">12:34:56</t>
   </si>
   <si>
+    <t xml:space="preserve">API server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApiKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AgentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CampaignName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to make Agent Available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to make Campaign Available?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api1.cloudagent.in/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;status&gt;All parameters are mandatory&lt;/status&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"status":"All parameters are mandatory"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9553578721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewInbound2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdinesh_qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_keY&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK11820a702e043973e935fe8e2ef9f457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;usernamE&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;AgentID&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignNamE&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumbeR&amp;UCID=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"status":"Agent is not available"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"ucid":"9189158339772211","status":"queued successfully"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"status":"queued successfully"}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Client side OnBusy</t>
   </si>
   <si>
@@ -596,9 +699,6 @@
     <t xml:space="preserve">11111112</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">sannn1_inbound_newUi4</t>
   </si>
   <si>
@@ -641,9 +741,6 @@
     <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">mdinesh_qa</t>
-  </si>
-  <si>
     <t xml:space="preserve">dinesh@123#</t>
   </si>
   <si>
@@ -683,58 +780,13 @@
     <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">new_preview_nonag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_preview_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_preview_agentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_Progressive_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_Progressive_NonAg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_Progressive_agentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12351</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Password is required.</t>
-  </si>
-  <si>
-    <t>agentid Ozo99 is not available to edit</t>
-  </si>
-  <si>
-    <t>no records found with the agentid: Ozo99</t>
+    <t xml:space="preserve">http://172.16.15.210/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKfdb819a5c849d829cd000819d4a4463b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">san_tz_inbound</t>
   </si>
 </sst>
 </file>
@@ -840,7 +892,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,6 +947,14 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1042,10 +1102,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="52.92" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="17.21" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,6 +1146,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="E1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1094,13 +1259,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="12.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="30" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="31" max="31" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="33" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="48.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="48.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,57 +1389,57 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1289,7 +1454,7 @@
         <v>65</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>65</v>
@@ -1302,13 +1467,13 @@
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>70</v>
@@ -1321,13 +1486,13 @@
         <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,16 +1601,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1468,7 +1633,7 @@
         <v>62</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>62</v>
@@ -1520,10 +1685,10 @@
         <v>70</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="AL4" s="0" t="s">
         <v>62</v>
@@ -1537,16 +1702,16 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1602,11 +1767,11 @@
         <v>65</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>86</v>
@@ -1621,16 +1786,16 @@
         <v>70</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,16 +1803,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1723,10 +1888,10 @@
       </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="0" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,16 +1899,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1830,16 +1995,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1895,7 +2060,7 @@
         <v>66</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11" t="s">
@@ -1915,10 +2080,10 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="5" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,24 +2091,24 @@
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="16" t="s">
-        <v>183</v>
+      <c r="G9" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>77</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
@@ -2111,58 +2276,58 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>65</v>
@@ -2190,13 +2355,13 @@
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>70</v>
@@ -2209,68 +2374,68 @@
         <v>71</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J12" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>65</v>
@@ -2282,7 +2447,7 @@
         <v>65</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>65</v>
@@ -2295,13 +2460,13 @@
       </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>70</v>
@@ -2314,68 +2479,68 @@
         <v>71</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J13" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>65</v>
@@ -2400,13 +2565,13 @@
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>70</v>
@@ -2419,68 +2584,68 @@
         <v>71</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H14" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J14" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>65</v>
@@ -2492,7 +2657,7 @@
         <v>65</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>66</v>
@@ -2505,13 +2670,13 @@
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>70</v>
@@ -2524,68 +2689,68 @@
         <v>71</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>65</v>
@@ -2597,7 +2762,7 @@
         <v>65</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>66</v>
@@ -2610,13 +2775,13 @@
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>70</v>
@@ -2629,68 +2794,68 @@
         <v>71</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>84</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>65</v>
@@ -2702,7 +2867,7 @@
         <v>65</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>66</v>
@@ -2715,13 +2880,13 @@
       </c>
       <c r="AC16" s="11"/>
       <c r="AD16" s="9" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>70</v>
@@ -2734,68 +2899,68 @@
         <v>71</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V17" s="9" t="s">
         <v>65</v>
@@ -2807,7 +2972,7 @@
         <v>65</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>66</v>
@@ -2820,13 +2985,13 @@
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="9" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>70</v>
@@ -2839,68 +3004,68 @@
         <v>71</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>65</v>
@@ -2912,7 +3077,7 @@
         <v>65</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>66</v>
@@ -2925,13 +3090,13 @@
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="9" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>70</v>
@@ -2944,7 +3109,7 @@
         <v>71</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3076,7 +3241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3084,38 +3249,38 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="54.32" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="66.83" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="66.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -3129,44 +3294,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3175,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3200,756 +3365,741 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="0" t="s">
+      <c r="L17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH4" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:C5" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D4:D6" type="list">
-      <formula1>SelectDialMethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U4:AA6" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC4:AC6" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P4:P6" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB4:AB7 U7:AA7" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C3" type="list">
-      <formula1>select_CompaignType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D3" type="list">
-      <formula1>select9ialmethod</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U1:AA3" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC1:AC3" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P1:P3" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AB1:AB3" type="list">
-      <formula1>YES_NO</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AC7" type="list">
-      <formula1>SelectDispositionType</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P7" type="list">
-      <formula1>HitScreenPopURlAt</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3968,13 +4118,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="57.1" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="1025" customWidth="false" hidden="false" style="1" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,7 +4148,7 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4038,24 +4188,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="17.21" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="26.95" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="17.21" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="12.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="16.81" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="10" customWidth="true" hidden="false" style="1" width="17.67" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="12" customWidth="true" hidden="false" style="0" width="17.67" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="15" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="20.56" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="23" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="24" customWidth="true" hidden="false" style="0" width="13.82" collapsed="true" outlineLevel="0"/>
-    <col min="25" max="33" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="0" width="13.24" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="36" customWidth="true" hidden="false" style="0" width="16.94" collapsed="true" outlineLevel="0"/>
-    <col min="37" max="37" customWidth="true" hidden="false" style="0" width="48.28" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="39" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="0" width="44.32" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="1" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="33" min="25" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="48.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="39" min="38" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="44.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="41" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,19 +4604,19 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="9.2" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="7" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="13.24" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="15" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="33.76" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,8 +4703,8 @@
       <c r="O2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
-        <v>231</v>
+      <c r="P2" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,8 +4717,8 @@
       <c r="F3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="P3" t="s">
-        <v>232</v>
+      <c r="P3" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,8 +4728,8 @@
       <c r="B4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="P4" t="s">
-        <v>233</v>
+      <c r="P4" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4606,11 +4756,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="15.88" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="7" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="35.42" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,16 +4806,10 @@
       <c r="G2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4692,12 +4836,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="0" width="23.08" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="21.67" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="35.42" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,9 +4881,6 @@
       <c r="F2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -4757,9 +4898,6 @@
       <c r="F3" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4773,9 +4911,6 @@
       </c>
       <c r="F4" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4802,11 +4937,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.73" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="25.4" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="36.26" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4830,9 +4965,6 @@
       <c r="B2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -4844,9 +4976,6 @@
       <c r="C3" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4854,9 +4983,6 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4883,12 +5009,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.73" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="25.14" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="36.38" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4918,9 +5044,6 @@
       <c r="D2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -4935,9 +5058,6 @@
       <c r="D3" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -4946,16 +5066,10 @@
       <c r="B4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E4" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4974,86 +5088,680 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="18.8" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="12.83" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="18.61" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="1025" customWidth="false" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="39.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="E1" s="5" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C1" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="E1" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H1" s="0" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="I1" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="J1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="K1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="L1" s="14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="5" t="s">
+      <c r="M1" s="0" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="5" t="s">
-        <v>84</v>
+      <c r="N1" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5064,12 +5772,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
+++ b/CloudAgent/src/main/java/com/CA/qa/TestData/CloudAgent.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="271">
   <si>
     <t xml:space="preserve">URL</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/cloudagent/agent_toolbar.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve">santosh1</t>
+    <t xml:space="preserve">san_new</t>
   </si>
   <si>
     <t xml:space="preserve">04030247155</t>
@@ -468,6 +468,12 @@
     <t xml:space="preserve">UCID</t>
   </si>
   <si>
+    <t xml:space="preserve">PhoneName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DID number</t>
+  </si>
+  <si>
     <t xml:space="preserve">uui</t>
   </si>
   <si>
@@ -489,6 +495,300 @@
     <t xml:space="preserve">https://api1.cloudagent.in/</t>
   </si>
   <si>
+    <t xml:space="preserve">CAServices/PhoneManualDial.php?apiKey=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK11820a702e043973e935fe8e2ef9f457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdinesh_qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9959177442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoshPH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">914030883780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testi1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{    "message": "9019158349792851",    "status": "queued"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"9019158349938261","status":"queued"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{    "message": "Authentication failed.",    "status": "error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Authentication failed.","status":"error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{    "message": "Phone name not found.",    "status": "error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Phone name not found.","status":"error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{    "message": "Invalid campaign DID",    "status": "error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"message":"Invalid campaign DID","status":"error"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/PhoneManualDial.php?apiKeY=&amp;userName=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/PhoneManualDial.php?apiKey=&amp;userNamE=&amp;custNumber=&amp;phoneName=&amp;did=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneNamE&amp;did=&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAServices/PhoneManualDial.php?apiKey=&amp;userName&amp;custNumber=&amp;phoneName&amp;diD&amp;uui=&amp;format=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server side OnBusy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client&amp;Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdnv jsj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:02:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:05:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urlll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skillwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num_skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_agentid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sannn1_inbound_newUi9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinesh@123#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staging 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staging 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
   </si>
   <si>
@@ -513,15 +813,12 @@
     <t xml:space="preserve">NewInbound2</t>
   </si>
   <si>
-    <t xml:space="preserve">mdinesh_qa</t>
+    <t xml:space="preserve">santosh1</t>
   </si>
   <si>
     <t xml:space="preserve">CAServices/AgentManualDial.php?api_keY&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
   </si>
   <si>
-    <t xml:space="preserve">KK11820a702e043973e935fe8e2ef9f457</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;usernamE&amp;agentID=&amp;campaignName=&amp;customerNumber=&amp;UCID=&amp;uui=&amp;format=</t>
   </si>
   <si>
@@ -534,9 +831,6 @@
     <t xml:space="preserve">CAServices/AgentManualDial.php?api_key=&amp;username=&amp;agentID=&amp;campaignName=&amp;customerNumbeR&amp;UCID=&amp;uui=&amp;format=</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
     <t xml:space="preserve">{"status":"Agent is not available"}</t>
   </si>
   <si>
@@ -544,240 +838,6 @@
   </si>
   <si>
     <t xml:space="preserve">{"status":"queued successfully"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progressive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agentwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toolbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server side OnBusy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predictive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client&amp;Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdnv jsj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:02:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:05:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urlll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skillwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_skill.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number_agentid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/santosh/Downloads/data_upload_sample_agent.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.120/kookoo_monit_ivr/ivr/suresh_english.php?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sannn1_inbound_newUi9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://admin2.cloudagent.in/OCCDV2/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinesh@123#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://172.16.15.16:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staging 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.88:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staging 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/mainMenu.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.1.2.76:8080/AdminPortal/cloudagent/agent_login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://enterprise.getkookoo.com/AdminPortal_New/login.jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://enterprise.getkookoo.com/AdminPortal_New/cloudagent/agent_login.jsp</t>
   </si>
   <si>
     <t xml:space="preserve">http://172.16.15.210/</t>
@@ -1167,21 +1227,21 @@
       </c>
       <c r="B1" s="17"/>
       <c r="E1" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>63</v>
@@ -1189,38 +1249,38 @@
     </row>
     <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,57 +1449,57 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>65</v>
@@ -1454,7 +1514,7 @@
         <v>65</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>65</v>
@@ -1467,13 +1527,13 @@
       </c>
       <c r="AC2" s="11"/>
       <c r="AD2" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>70</v>
@@ -1486,13 +1546,13 @@
         <v>71</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,16 +1661,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1633,7 +1693,7 @@
         <v>62</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>62</v>
@@ -1685,10 +1745,10 @@
         <v>70</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL4" s="0" t="s">
         <v>62</v>
@@ -1702,16 +1762,16 @@
         <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1767,11 +1827,11 @@
         <v>65</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>86</v>
@@ -1786,16 +1846,16 @@
         <v>70</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,16 +1863,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1888,10 +1948,10 @@
       </c>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,16 +1959,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1995,16 +2055,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2060,7 +2120,7 @@
         <v>66</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11" t="s">
@@ -2080,10 +2140,10 @@
       </c>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,24 +2151,24 @@
         <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>77</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="1" t="s">
@@ -2276,58 +2336,58 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J11" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>65</v>
@@ -2355,13 +2415,13 @@
       </c>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>70</v>
@@ -2374,68 +2434,68 @@
         <v>71</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J12" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>65</v>
@@ -2447,7 +2507,7 @@
         <v>65</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>65</v>
@@ -2460,13 +2520,13 @@
       </c>
       <c r="AC12" s="11"/>
       <c r="AD12" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF12" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>70</v>
@@ -2479,68 +2539,68 @@
         <v>71</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J13" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>65</v>
@@ -2565,13 +2625,13 @@
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF13" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>70</v>
@@ -2584,68 +2644,68 @@
         <v>71</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H14" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J14" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V14" s="9" t="s">
         <v>65</v>
@@ -2657,7 +2717,7 @@
         <v>65</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>66</v>
@@ -2670,13 +2730,13 @@
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF14" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>70</v>
@@ -2689,68 +2749,68 @@
         <v>71</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>65</v>
@@ -2762,7 +2822,7 @@
         <v>65</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>66</v>
@@ -2775,13 +2835,13 @@
       </c>
       <c r="AC15" s="11"/>
       <c r="AD15" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF15" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>70</v>
@@ -2794,68 +2854,68 @@
         <v>71</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>84</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>65</v>
@@ -2867,7 +2927,7 @@
         <v>65</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>66</v>
@@ -2880,13 +2940,13 @@
       </c>
       <c r="AC16" s="11"/>
       <c r="AD16" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF16" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>70</v>
@@ -2899,68 +2959,68 @@
         <v>71</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J17" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V17" s="9" t="s">
         <v>65</v>
@@ -2972,7 +3032,7 @@
         <v>65</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>66</v>
@@ -2985,13 +3045,13 @@
       </c>
       <c r="AC17" s="11"/>
       <c r="AD17" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF17" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>70</v>
@@ -3004,68 +3064,68 @@
         <v>71</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>50</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>65</v>
@@ -3077,7 +3137,7 @@
         <v>65</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>66</v>
@@ -3090,13 +3150,13 @@
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG18" s="1" t="s">
         <v>70</v>
@@ -3109,7 +3169,7 @@
         <v>71</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -3263,24 +3323,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -3294,44 +3354,44 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -3340,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3370,10 +3430,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3414,25 +3474,31 @@
       <c r="J1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="14" t="s">
         <v>148</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>149</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -3444,17 +3510,19 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="M2" s="14"/>
       <c r="N2" s="14"/>
+      <c r="O2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -3463,22 +3531,24 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
-      <c r="J3" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="L3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" s="14"/>
       <c r="N3" s="14"/>
+      <c r="O3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -3486,25 +3556,27 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="14"/>
+      <c r="O4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3512,591 +3584,623 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M5" s="14"/>
       <c r="N5" s="14"/>
+      <c r="O5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M6" s="14"/>
       <c r="N6" s="14"/>
+      <c r="O6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="14"/>
       <c r="N7" s="14"/>
+      <c r="O7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="14"/>
       <c r="N8" s="14"/>
+      <c r="O8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="14"/>
       <c r="N9" s="14"/>
+      <c r="O9" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M10" s="14"/>
       <c r="N10" s="14"/>
+      <c r="O10" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="14"/>
       <c r="N11" s="14"/>
+      <c r="O11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="14"/>
+      <c r="O12" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M13" s="14"/>
       <c r="N13" s="14"/>
+      <c r="O13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M14" s="14"/>
       <c r="N14" s="14"/>
+      <c r="O14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="5" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>153</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="5" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="N16" s="14"/>
+        <v>223</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="N18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="N18" s="14"/>
+      <c r="O18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="I19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N19" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="N22" s="14" t="s">
-        <v>167</v>
+        <v>223</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4222,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5088,10 +5192,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5102,12 +5206,15 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="38.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="14" width="39.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="14" width="39.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,627 +5248,341 @@
       <c r="J1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="14" t="s">
         <v>148</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="J3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="D6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="J8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="P10" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
